--- a/other2/thomas/KSContest2020/RoundE/D/PD.xlsx
+++ b/other2/thomas/KSContest2020/RoundE/D/PD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\other2\thomas\KS2020\RoundE\D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\other2\thomas\KSContest2020\RoundE\D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673BF642-D9C9-4261-8123-647382B6415D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F125CE34-86F0-44C5-BE44-AEB8AB9CC87A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="0" windowWidth="27770" windowHeight="12590" xr2:uid="{AA40D582-7EEA-453A-9B86-6F9363B88BA8}"/>
+    <workbookView xWindow="2750" yWindow="0" windowWidth="27770" windowHeight="12590" xr2:uid="{AA40D582-7EEA-453A-9B86-6F9363B88BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>Case #1</t>
   </si>
@@ -41,12 +41,16 @@
     <t>Case #3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>∞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +87,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -130,7 +139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -143,14 +152,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,21 +484,22 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="3.83203125" style="1"/>
     <col min="3" max="3" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.83203125" style="1"/>
+    <col min="4" max="4" width="3" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4"/>
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6"/>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
@@ -506,16 +522,16 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
         <v>1</v>
       </c>
     </row>
@@ -571,10 +587,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4"/>
+      <c r="A9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
@@ -614,16 +630,16 @@
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <v>2</v>
       </c>
     </row>
@@ -662,10 +678,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4"/>
+      <c r="A16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6"/>
       <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
@@ -684,12 +700,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -697,24 +713,24 @@
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
+      <c r="G18" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="D19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="8">
         <v>0</v>
       </c>
     </row>
